--- a/biology/Zoologie/Bothriurus_vittatus/Bothriurus_vittatus.xlsx
+++ b/biology/Zoologie/Bothriurus_vittatus/Bothriurus_vittatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bothriurus vittatus est une espèce de scorpions de la famille des Bothriuridae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Chili[1]. Elle se rencontre dans les régions de Ñuble, du Biobío et d'Araucanie[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Chili. Elle se rencontre dans les régions de Ñuble, du Biobío et d'Araucanie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent de 27,13 à 41,65 mm et les femelles jusqu'à 48,33 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent de 27,13 à 41,65 mm et les femelles jusqu'à 48,33 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Guerin-Meneville, 1838 : Arachnides. Voyage autour du monde, exécuté par ordre du Roi, sur la corvette la Coquille, pendant les années 1822, 1823, 1824 et 1825 par L.I. Duperrey. Lesson R.P. ed., Zoologie, vol. 2, no 2, p. 47-50 (texte intégral).</t>
         </is>
